--- a/Plotting Data/Propagation Speed EE/9 Atom/D=24.xlsx
+++ b/Plotting Data/Propagation Speed EE/9 Atom/D=24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliverlind/Documents/Year 4 Project/RydbergQubit/Plotting Data/Propagation Speed EE/9 Atom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA01D0E-0901-884C-AF7B-BF383CE3AC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CC82A8-4AD9-C64F-974C-01E4801DE7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18000" xr2:uid="{2A67BA45-7CCA-B543-BED9-9128D1751F9D}"/>
   </bookViews>
@@ -399,7 +399,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="185" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
